--- a/TestData/Staging/Web_POS/Order/carry_bag_order_test_data.xlsx
+++ b/TestData/Staging/Web_POS/Order/carry_bag_order_test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\PycharmProjects\production api\zwing-qa-automation\TestData\Staging\Web_POS\Order\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zwing-qa-automation\TestData\Staging\Web_POS\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -93,13 +93,13 @@
     <t>CB_O_1</t>
   </si>
   <si>
-    <t xml:space="preserve">	239190824QWW</t>
+    <t>492220824TCB</t>
   </si>
   <si>
-    <t>Zwingautomation78@gmail.com</t>
+    <t>admin@sunrise.com</t>
   </si>
   <si>
-    <t>1234</t>
+    <t>123456</t>
   </si>
   <si>
     <t>O_carry_bag_user1_p1</t>
@@ -156,13 +156,16 @@
     <t>CB_O_9</t>
   </si>
   <si>
-    <t>307260624ut0</t>
+    <t>492220824JxS</t>
   </si>
   <si>
-    <t>userone_p2</t>
+    <t xml:space="preserve">	O_CB_user1_p8</t>
   </si>
   <si>
-    <t>8906118412556 : 1</t>
+    <t>cnegative : 1</t>
+  </si>
+  <si>
+    <t>9865434567</t>
   </si>
   <si>
     <t>CB_O_10</t>
@@ -183,13 +186,19 @@
     <t>CB_O_14</t>
   </si>
   <si>
-    <t>cnegative : 1</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
     <t>CB_O_15</t>
+  </si>
+  <si>
+    <t>4922208249xi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	O_carry_bag_user2_p2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	8976534567</t>
   </si>
   <si>
     <t>CB_O_16</t>
@@ -482,8 +491,8 @@
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A4">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="D7">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -698,7 +707,9 @@
       <c r="V3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W3" s="2"/>
+      <c r="W3" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -765,7 +776,9 @@
       <c r="V4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="2"/>
+      <c r="W4" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -832,7 +845,9 @@
       <c r="V5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W5" s="2"/>
+      <c r="W5" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -899,7 +914,9 @@
       <c r="V6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W6" s="2"/>
+      <c r="W6" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -966,7 +983,9 @@
       <c r="V7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W7" s="2"/>
+      <c r="W7" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -1033,7 +1052,9 @@
       <c r="V8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W8" s="2"/>
+      <c r="W8" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -1100,7 +1121,9 @@
       <c r="V9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W9" s="2"/>
+      <c r="W9" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -1167,11 +1190,13 @@
       <c r="V10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="2"/>
+      <c r="W10" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>24</v>
@@ -1234,11 +1259,13 @@
       <c r="V11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W11" s="2"/>
+      <c r="W11" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
@@ -1301,11 +1328,13 @@
       <c r="V12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W12" s="2"/>
+      <c r="W12" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -1368,11 +1397,13 @@
       <c r="V13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W13" s="2"/>
+      <c r="W13" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>24</v>
@@ -1426,7 +1457,7 @@
         <v>30</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>30</v>
@@ -1435,11 +1466,13 @@
       <c r="V14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W14" s="2"/>
+      <c r="W14" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>24</v>
@@ -1475,7 +1508,7 @@
         <v>30</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>30</v>
@@ -1502,14 +1535,16 @@
       <c r="V15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W15" s="2"/>
+      <c r="W15" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>25</v>
@@ -1518,7 +1553,7 @@
         <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>26</v>
@@ -1542,7 +1577,7 @@
         <v>30</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>30</v>
@@ -1569,16 +1604,18 @@
       <c r="V16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W16" s="2"/>
+      <c r="W16" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1609,7 +1646,7 @@
         <v>30</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>30</v>
@@ -1630,13 +1667,15 @@
         <v>30</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U17" s="2"/>
       <c r="V17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W17" s="2"/>
+      <c r="W17" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
